--- a/biology/Médecine/Biopsie_rénale/Biopsie_rénale.xlsx
+++ b/biology/Médecine/Biopsie_rénale/Biopsie_rénale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Biopsie_r%C3%A9nale</t>
+          <t>Biopsie_rénale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La biopsie rénale est une procédure diagnostique essentielle dans la pratique de la néphrologie moderne. Elle consiste à prélever un fragment de tissu rénal pour en faire une analyse histologique au microscope et le soumettre à différents tests et colorations. Cette procédure peut être réalisée par voie percutanée, transveineuse ou ouverte : c'est-à-dire avec incision de la peau et exposition du tissu rénal. Ces dernières sont rares et généralement pratiquées par des chirurgiens. C'est une procédure invasive, une évaluation des rapports bénéfice risque doit donc être faite dans tous les cas.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Biopsie_r%C3%A9nale</t>
+          <t>Biopsie_rénale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rein fut parmi les derniers organes pleins explorés par ponction-biopsie percutanée. Il existait pour cette technique de nombreuses complications possibles ce qui lui valut d'être considéré comme dangereuse pendant longtemps. De plus, la découverte simultanée du rein artificiel a occulté l’intérêt du diagnostic des maladies rénales, limité alors aux autopsies. C'est à partir de 1955 qu'elle a été introduite efficacement. Elle a depuis bénéficié de nombre d'améliorations liées au repérage du rein par imagerie, telles que l'urographie intraveineuse, l'emploi des radio-isotopes, d'un amplificateur de brillance et depuis une dizaine d'années, de l'échographie. Depuis la loi du 4 mars 2002, la ponction-biopsie doit se faire avec le consentement éclairé du patient.
 Les moyens d'étude ont eux aussi considérablement augmenté. L'introduction quasi simultanée des techniques de microscopie électronique et optique en 1956 a permis l'analyse du rein normal et des lésions morphologiques glomérulaires. Ces techniques ont néanmoins surtout servi de protocole expérimental.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Biopsie_r%C3%A9nale</t>
+          <t>Biopsie_rénale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'apport du diagnostic des biopsies rénales est indiscutable sur quelques indications, telles que :
 le syndrome néphrotique ;
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Biopsie_r%C3%A9nale</t>
+          <t>Biopsie_rénale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les seules contre-indications absolues pour la biopsie rénale sont : le non-consentement du patient ou son incapacité à coopérer. La plupart des contre-indications sont donc relatives. Elles nécessitent une évaluation au cas par cas du rapport bénéfice-risque par l'équipe médicale. Avant toute biopsie rénale un bilan de coagulation, une échographie, une prise de la tension artérielle et un ECBU (examen cytobactériologique des urines) sont nécessaires. Ce, afin de choisir la bonne technique de prélèvement.
 Les contre-indications relatives sont :
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Biopsie_r%C3%A9nale</t>
+          <t>Biopsie_rénale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +638,9 @@
           <t>Techniques de prélèvements et procédure</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les techniques de biopsie rénale ont largement évolué ces dernières années. Il en existe différentes sortes afin de pallier certaines contre-indications. Le problème le plus redondant, pour cet examen est le saignement (complication hémorragique). Il existe différents facteurs de risques pour cette contre-indication tels que :
 le sexe : risque plus important chez les femmes ;
@@ -646,7 +666,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Biopsie_r%C3%A9nale</t>
+          <t>Biopsie_rénale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -664,7 +684,9 @@
           <t>Résultats/Interprétations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Après prélèvement et colorations, l'observation des fragments de reins apporte des informations diagnostiques utiles. Il existe des marquages en immunofluorescence n'évoquant qu'un seul diagnostic.
 Absence de marquage. Elle élimine une glomérulonéphrite à dépôts.
@@ -684,7 +706,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Biopsie_r%C3%A9nale</t>
+          <t>Biopsie_rénale</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -702,7 +724,9 @@
           <t>Complications à la biopsie rénale percutanée</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Nous traitons ici seulement les complications de la biopsie rénale percutanée qui est la technique la plus largement utilisée. Les complications de cet acte deviennent de plus en plus rares dû à l'amélioration croissante des techniques de ponction. Avec le pistolet et l'échoguidage une seule personne est décédée durant les vingt dernières années.
 Sur l'ensemble des biopsies les complications sont évaluées à 13 % des cas, dont 7 % nécessitent une intervention thérapeutique. Les autres complications se résolvent spontanément. Le nombre de complications sévères reste donc toujours important. 
